--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymasaki\git\networkreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC14370-38D4-4125-A48F-6057AB933345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BAF478-4295-4741-8845-9178321E9890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34005" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>192.168.11.200</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>192.168.11.11</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -361,13 +357,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -379,11 +376,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
